--- a/cpu_affinity/fio_logs/rfuse_results.xlsx
+++ b/cpu_affinity/fio_logs/rfuse_results.xlsx
@@ -526,7 +526,7 @@
         <v>15.51</v>
       </c>
       <c r="J3">
-        <v>17.62</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -558,7 +558,7 @@
         <v>20.53</v>
       </c>
       <c r="J4">
-        <v>55.66</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -590,7 +590,7 @@
         <v>11.83</v>
       </c>
       <c r="J5">
-        <v>50.41</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -622,7 +622,7 @@
         <v>7.96</v>
       </c>
       <c r="J6">
-        <v>24.96</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -654,7 +654,7 @@
         <v>5.15</v>
       </c>
       <c r="J7">
-        <v>20.29</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -750,7 +750,7 @@
         <v>6.84</v>
       </c>
       <c r="J10">
-        <v>85.84</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -782,7 +782,7 @@
         <v>5.87</v>
       </c>
       <c r="J11">
-        <v>83.17</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -814,7 +814,7 @@
         <v>3.07</v>
       </c>
       <c r="J12">
-        <v>42.54</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -846,7 +846,7 @@
         <v>2.31</v>
       </c>
       <c r="J13">
-        <v>25.67</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -878,7 +878,7 @@
         <v>20.7</v>
       </c>
       <c r="J14">
-        <v>24</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -910,7 +910,7 @@
         <v>30.46</v>
       </c>
       <c r="J15">
-        <v>42.56</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -942,7 +942,7 @@
         <v>33.43</v>
       </c>
       <c r="J16">
-        <v>31.02</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -974,7 +974,7 @@
         <v>30.78</v>
       </c>
       <c r="J17">
-        <v>15.68</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1006,7 +1006,7 @@
         <v>29.44</v>
       </c>
       <c r="J18">
-        <v>8.51</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1038,7 +1038,7 @@
         <v>19.43</v>
       </c>
       <c r="J19">
-        <v>1.77</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1198,7 +1198,7 @@
         <v>90.31999999999999</v>
       </c>
       <c r="J24">
-        <v>67.59999999999999</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1230,7 +1230,7 @@
         <v>60.93</v>
       </c>
       <c r="J25">
-        <v>25.6</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1294,7 +1294,7 @@
         <v>40.99</v>
       </c>
       <c r="J27">
-        <v>15.24</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1326,7 +1326,7 @@
         <v>28.28</v>
       </c>
       <c r="J28">
-        <v>62.42</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1358,7 +1358,7 @@
         <v>23.5</v>
       </c>
       <c r="J29">
-        <v>62.12</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1390,7 +1390,7 @@
         <v>19.27</v>
       </c>
       <c r="J30">
-        <v>68.68000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1422,7 +1422,7 @@
         <v>16.31</v>
       </c>
       <c r="J31">
-        <v>61.69</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1646,7 +1646,7 @@
         <v>15.95</v>
       </c>
       <c r="J38">
-        <v>66.67</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1678,7 +1678,7 @@
         <v>28.26</v>
       </c>
       <c r="J39">
-        <v>24.26</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1710,7 +1710,7 @@
         <v>28.79</v>
       </c>
       <c r="J40">
-        <v>6.73</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1742,7 +1742,7 @@
         <v>19.01</v>
       </c>
       <c r="J41">
-        <v>6.54</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1774,7 +1774,7 @@
         <v>19.01</v>
       </c>
       <c r="J42">
-        <v>4.68</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1806,7 +1806,7 @@
         <v>69.83</v>
       </c>
       <c r="J43">
-        <v>10.03</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1870,7 +1870,7 @@
         <v>25.2</v>
       </c>
       <c r="J45">
-        <v>97.03</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1902,7 +1902,7 @@
         <v>28.53</v>
       </c>
       <c r="J46">
-        <v>79.56</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1934,7 +1934,7 @@
         <v>32.84</v>
       </c>
       <c r="J47">
-        <v>49.23</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1966,7 +1966,7 @@
         <v>40.95</v>
       </c>
       <c r="J48">
-        <v>33.79</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1998,7 +1998,7 @@
         <v>39.12</v>
       </c>
       <c r="J49">
-        <v>21.83</v>
+        <v>0.22</v>
       </c>
     </row>
   </sheetData>

--- a/cpu_affinity/fio_logs/rfuse_results.xlsx
+++ b/cpu_affinity/fio_logs/rfuse_results.xlsx
@@ -476,25 +476,25 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>7.714</v>
+        <v>6.781</v>
       </c>
       <c r="E2">
-        <v>964.22</v>
+        <v>847.6799999999999</v>
       </c>
       <c r="F2">
-        <v>129.42</v>
+        <v>147.25</v>
       </c>
       <c r="G2">
-        <v>234.5</v>
+        <v>257.02</v>
       </c>
       <c r="H2">
-        <v>259.07</v>
+        <v>292.86</v>
       </c>
       <c r="I2">
-        <v>15.17</v>
+        <v>12.43</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -508,25 +508,25 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>14.334</v>
+        <v>5.665</v>
       </c>
       <c r="E3">
-        <v>1791.78</v>
+        <v>708.16</v>
       </c>
       <c r="F3">
-        <v>138.38</v>
+        <v>350.7</v>
       </c>
       <c r="G3">
-        <v>248.83</v>
+        <v>651.26</v>
       </c>
       <c r="H3">
-        <v>276.48</v>
+        <v>724.99</v>
       </c>
       <c r="I3">
-        <v>15.51</v>
+        <v>25.71</v>
       </c>
       <c r="J3">
-        <v>0.18</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -540,25 +540,25 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>17.439</v>
+        <v>16.996</v>
       </c>
       <c r="E4">
-        <v>2179.88</v>
+        <v>2124.48</v>
       </c>
       <c r="F4">
-        <v>224.34</v>
+        <v>231.48</v>
       </c>
       <c r="G4">
-        <v>436.22</v>
+        <v>448.51</v>
       </c>
       <c r="H4">
-        <v>634.88</v>
+        <v>651.26</v>
       </c>
       <c r="I4">
-        <v>20.53</v>
+        <v>18.16</v>
       </c>
       <c r="J4">
-        <v>0.5600000000000001</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -572,25 +572,25 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>25.873</v>
+        <v>22.677</v>
       </c>
       <c r="E5">
-        <v>3234.11</v>
+        <v>2834.6</v>
       </c>
       <c r="F5">
-        <v>287.17</v>
+        <v>334.52</v>
       </c>
       <c r="G5">
-        <v>741.38</v>
+        <v>815.1</v>
       </c>
       <c r="H5">
-        <v>1044.48</v>
+        <v>1155.07</v>
       </c>
       <c r="I5">
-        <v>11.83</v>
+        <v>12.81</v>
       </c>
       <c r="J5">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -604,25 +604,25 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>29.238</v>
+        <v>26.815</v>
       </c>
       <c r="E6">
-        <v>3654.7</v>
+        <v>3351.88</v>
       </c>
       <c r="F6">
-        <v>461.02</v>
+        <v>522.76</v>
       </c>
       <c r="G6">
-        <v>1499.14</v>
+        <v>1581.06</v>
       </c>
       <c r="H6">
-        <v>2244.61</v>
+        <v>2179.07</v>
       </c>
       <c r="I6">
-        <v>7.96</v>
+        <v>7.27</v>
       </c>
       <c r="J6">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -636,25 +636,25 @@
         <v>32</v>
       </c>
       <c r="D7">
-        <v>29.648</v>
+        <v>28.848</v>
       </c>
       <c r="E7">
-        <v>3705.95</v>
+        <v>3606.03</v>
       </c>
       <c r="F7">
-        <v>977.02</v>
+        <v>912.17</v>
       </c>
       <c r="G7">
-        <v>2998.27</v>
+        <v>3194.88</v>
       </c>
       <c r="H7">
-        <v>4751.36</v>
+        <v>5275.65</v>
       </c>
       <c r="I7">
-        <v>5.15</v>
+        <v>5.68</v>
       </c>
       <c r="J7">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -668,25 +668,25 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>18.381</v>
+        <v>14.997</v>
       </c>
       <c r="E8">
-        <v>71.8</v>
+        <v>58.58</v>
       </c>
       <c r="F8">
-        <v>54.01</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="G8">
-        <v>117.25</v>
+        <v>140.29</v>
       </c>
       <c r="H8">
-        <v>148.48</v>
+        <v>181.25</v>
       </c>
       <c r="I8">
-        <v>13.85</v>
+        <v>14.9</v>
       </c>
       <c r="J8">
-        <v>2.11</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -700,25 +700,25 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>42.604</v>
+        <v>35.846</v>
       </c>
       <c r="E9">
-        <v>166.42</v>
+        <v>140.02</v>
       </c>
       <c r="F9">
-        <v>44.43</v>
+        <v>53.68</v>
       </c>
       <c r="G9">
-        <v>98.81999999999999</v>
+        <v>114.18</v>
       </c>
       <c r="H9">
-        <v>138.24</v>
+        <v>158.72</v>
       </c>
       <c r="I9">
-        <v>7.61</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="J9">
-        <v>1.03</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -732,25 +732,25 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>75.508</v>
+        <v>72.48099999999999</v>
       </c>
       <c r="E10">
-        <v>294.95</v>
+        <v>283.13</v>
       </c>
       <c r="F10">
-        <v>49.73</v>
+        <v>53.8</v>
       </c>
       <c r="G10">
-        <v>115.2</v>
+        <v>125.44</v>
       </c>
       <c r="H10">
-        <v>164.86</v>
+        <v>181.25</v>
       </c>
       <c r="I10">
-        <v>6.84</v>
+        <v>6.41</v>
       </c>
       <c r="J10">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -764,25 +764,25 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>122.411</v>
+        <v>126.289</v>
       </c>
       <c r="E11">
-        <v>478.17</v>
+        <v>493.32</v>
       </c>
       <c r="F11">
-        <v>62.37</v>
+        <v>62.43</v>
       </c>
       <c r="G11">
-        <v>146.43</v>
+        <v>154.62</v>
       </c>
       <c r="H11">
-        <v>259.07</v>
+        <v>261.12</v>
       </c>
       <c r="I11">
-        <v>5.87</v>
+        <v>5.69</v>
       </c>
       <c r="J11">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -796,25 +796,25 @@
         <v>16</v>
       </c>
       <c r="D12">
-        <v>115.399</v>
+        <v>114.305</v>
       </c>
       <c r="E12">
-        <v>450.78</v>
+        <v>446.5</v>
       </c>
       <c r="F12">
-        <v>135.54</v>
+        <v>137.83</v>
       </c>
       <c r="G12">
-        <v>230.4</v>
+        <v>242.69</v>
       </c>
       <c r="H12">
-        <v>2056.19</v>
+        <v>2007.04</v>
       </c>
       <c r="I12">
-        <v>3.07</v>
+        <v>3.13</v>
       </c>
       <c r="J12">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -828,25 +828,25 @@
         <v>32</v>
       </c>
       <c r="D13">
-        <v>128.398</v>
+        <v>128.766</v>
       </c>
       <c r="E13">
-        <v>501.55</v>
+        <v>502.99</v>
       </c>
       <c r="F13">
-        <v>241.57</v>
+        <v>243.75</v>
       </c>
       <c r="G13">
-        <v>378.88</v>
+        <v>423.94</v>
       </c>
       <c r="H13">
-        <v>5799.94</v>
+        <v>5537.79</v>
       </c>
       <c r="I13">
-        <v>2.31</v>
+        <v>2.33</v>
       </c>
       <c r="J13">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -860,25 +860,25 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>4.911</v>
+        <v>6.35</v>
       </c>
       <c r="E14">
-        <v>613.91</v>
+        <v>793.8</v>
       </c>
       <c r="F14">
-        <v>73.26000000000001</v>
+        <v>71.09</v>
       </c>
       <c r="G14">
-        <v>93.7</v>
+        <v>97.79000000000001</v>
       </c>
       <c r="H14">
-        <v>220.16</v>
+        <v>224.26</v>
       </c>
       <c r="I14">
-        <v>20.7</v>
+        <v>25.83</v>
       </c>
       <c r="J14">
-        <v>0.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -892,25 +892,25 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>7.561</v>
+        <v>10.674</v>
       </c>
       <c r="E15">
-        <v>945.09</v>
+        <v>1334.2</v>
       </c>
       <c r="F15">
-        <v>109.82</v>
+        <v>100.5</v>
       </c>
       <c r="G15">
-        <v>150.53</v>
+        <v>142.34</v>
       </c>
       <c r="H15">
-        <v>177.15</v>
+        <v>189.44</v>
       </c>
       <c r="I15">
-        <v>30.46</v>
+        <v>37.94</v>
       </c>
       <c r="J15">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -924,25 +924,25 @@
         <v>4</v>
       </c>
       <c r="D16">
-        <v>9.484</v>
+        <v>13.762</v>
       </c>
       <c r="E16">
-        <v>1185.53</v>
+        <v>1720.29</v>
       </c>
       <c r="F16">
-        <v>170.02</v>
+        <v>175.49</v>
       </c>
       <c r="G16">
-        <v>252.93</v>
+        <v>257.02</v>
       </c>
       <c r="H16">
-        <v>366.59</v>
+        <v>378.88</v>
       </c>
       <c r="I16">
-        <v>33.43</v>
+        <v>52.19</v>
       </c>
       <c r="J16">
-        <v>0.31</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -956,25 +956,25 @@
         <v>8</v>
       </c>
       <c r="D17">
-        <v>7.539</v>
+        <v>17.751</v>
       </c>
       <c r="E17">
-        <v>942.37</v>
+        <v>2218.85</v>
       </c>
       <c r="F17">
-        <v>289.34</v>
+        <v>292.71</v>
       </c>
       <c r="G17">
-        <v>444.42</v>
+        <v>456.7</v>
       </c>
       <c r="H17">
-        <v>831.49</v>
+        <v>749.5700000000001</v>
       </c>
       <c r="I17">
-        <v>30.78</v>
+        <v>62.18</v>
       </c>
       <c r="J17">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -988,25 +988,25 @@
         <v>16</v>
       </c>
       <c r="D18">
-        <v>6.448</v>
+        <v>16.347</v>
       </c>
       <c r="E18">
-        <v>806.02</v>
+        <v>2043.4</v>
       </c>
       <c r="F18">
-        <v>1054.36</v>
+        <v>737.5</v>
       </c>
       <c r="G18">
-        <v>1302.53</v>
+        <v>1220.61</v>
       </c>
       <c r="H18">
-        <v>8028.16</v>
+        <v>3194.88</v>
       </c>
       <c r="I18">
-        <v>29.44</v>
+        <v>78.62</v>
       </c>
       <c r="J18">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1020,25 +1020,25 @@
         <v>32</v>
       </c>
       <c r="D19">
-        <v>5.458</v>
+        <v>5.75</v>
       </c>
       <c r="E19">
-        <v>682.3</v>
+        <v>718.72</v>
       </c>
       <c r="F19">
-        <v>4535.4</v>
+        <v>3904.42</v>
       </c>
       <c r="G19">
-        <v>43778.05</v>
+        <v>11993.09</v>
       </c>
       <c r="H19">
         <v>74973.17999999999</v>
       </c>
       <c r="I19">
-        <v>19.43</v>
+        <v>26.29</v>
       </c>
       <c r="J19">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1052,25 +1052,25 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>139.142</v>
+        <v>142.625</v>
       </c>
       <c r="E20">
-        <v>543.52</v>
+        <v>557.13</v>
       </c>
       <c r="F20">
-        <v>5.92</v>
+        <v>5.64</v>
       </c>
       <c r="G20">
-        <v>7.65</v>
+        <v>7.39</v>
       </c>
       <c r="H20">
-        <v>8.640000000000001</v>
+        <v>8.26</v>
       </c>
       <c r="I20">
-        <v>44.45</v>
+        <v>41.37</v>
       </c>
       <c r="J20">
-        <v>4.41</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1084,25 +1084,25 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>171.616</v>
+        <v>177.544</v>
       </c>
       <c r="E21">
-        <v>670.38</v>
+        <v>693.53</v>
       </c>
       <c r="F21">
-        <v>9.9</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="G21">
-        <v>12.35</v>
+        <v>12.22</v>
       </c>
       <c r="H21">
-        <v>15.55</v>
+        <v>14.78</v>
       </c>
       <c r="I21">
-        <v>62.95</v>
+        <v>61.69</v>
       </c>
       <c r="J21">
-        <v>3.01</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1116,25 +1116,25 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <v>195.266</v>
+        <v>199.881</v>
       </c>
       <c r="E22">
-        <v>762.76</v>
+        <v>780.79</v>
       </c>
       <c r="F22">
-        <v>16.71</v>
+        <v>16.27</v>
       </c>
       <c r="G22">
-        <v>21.63</v>
+        <v>20.86</v>
       </c>
       <c r="H22">
-        <v>31.87</v>
+        <v>30.85</v>
       </c>
       <c r="I22">
-        <v>69.26000000000001</v>
+        <v>68.88</v>
       </c>
       <c r="J22">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1148,25 +1148,25 @@
         <v>8</v>
       </c>
       <c r="D23">
-        <v>230.634</v>
+        <v>227.21</v>
       </c>
       <c r="E23">
-        <v>900.91</v>
+        <v>887.54</v>
       </c>
       <c r="F23">
-        <v>30.09</v>
+        <v>30.54</v>
       </c>
       <c r="G23">
         <v>41.73</v>
       </c>
       <c r="H23">
-        <v>55.04</v>
+        <v>57.09</v>
       </c>
       <c r="I23">
-        <v>82.43000000000001</v>
+        <v>82.23999999999999</v>
       </c>
       <c r="J23">
-        <v>1.04</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1180,25 +1180,25 @@
         <v>16</v>
       </c>
       <c r="D24">
-        <v>186.397</v>
+        <v>191.398</v>
       </c>
       <c r="E24">
-        <v>728.11</v>
+        <v>747.65</v>
       </c>
       <c r="F24">
-        <v>77.17</v>
+        <v>76.95999999999999</v>
       </c>
       <c r="G24">
-        <v>122.37</v>
+        <v>125.44</v>
       </c>
       <c r="H24">
-        <v>146.43</v>
+        <v>150.53</v>
       </c>
       <c r="I24">
-        <v>90.31999999999999</v>
+        <v>92.18000000000001</v>
       </c>
       <c r="J24">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1212,25 +1212,25 @@
         <v>32</v>
       </c>
       <c r="D25">
-        <v>118.75</v>
+        <v>115.558</v>
       </c>
       <c r="E25">
-        <v>463.87</v>
+        <v>451.4</v>
       </c>
       <c r="F25">
-        <v>215.67</v>
+        <v>216.07</v>
       </c>
       <c r="G25">
-        <v>518.14</v>
+        <v>514.05</v>
       </c>
       <c r="H25">
-        <v>733.1799999999999</v>
+        <v>741.38</v>
       </c>
       <c r="I25">
-        <v>60.93</v>
+        <v>57.93</v>
       </c>
       <c r="J25">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1244,25 +1244,25 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>12.983</v>
+        <v>11.1</v>
       </c>
       <c r="E26">
-        <v>1622.82</v>
+        <v>1387.53</v>
       </c>
       <c r="F26">
-        <v>76.67</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="G26">
-        <v>264.19</v>
+        <v>313.34</v>
       </c>
       <c r="H26">
-        <v>423.94</v>
+        <v>528.38</v>
       </c>
       <c r="I26">
-        <v>50.95</v>
+        <v>46.4</v>
       </c>
       <c r="J26">
-        <v>1.43</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1276,25 +1276,25 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>16.335</v>
+        <v>16.634</v>
       </c>
       <c r="E27">
-        <v>2041.87</v>
+        <v>2079.19</v>
       </c>
       <c r="F27">
-        <v>119.76</v>
+        <v>115.58</v>
       </c>
       <c r="G27">
-        <v>362.5</v>
+        <v>387.07</v>
       </c>
       <c r="H27">
-        <v>659.46</v>
+        <v>569.34</v>
       </c>
       <c r="I27">
-        <v>40.99</v>
+        <v>37.21</v>
       </c>
       <c r="J27">
-        <v>0.15</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1308,25 +1308,25 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <v>30.942</v>
+        <v>26.468</v>
       </c>
       <c r="E28">
-        <v>3867.8</v>
+        <v>3308.56</v>
       </c>
       <c r="F28">
-        <v>126.81</v>
+        <v>142</v>
       </c>
       <c r="G28">
-        <v>382.98</v>
+        <v>481.28</v>
       </c>
       <c r="H28">
-        <v>790.53</v>
+        <v>847.87</v>
       </c>
       <c r="I28">
-        <v>28.28</v>
+        <v>26.65</v>
       </c>
       <c r="J28">
-        <v>0.62</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1340,25 +1340,25 @@
         <v>8</v>
       </c>
       <c r="D29">
-        <v>35.368</v>
+        <v>33.66</v>
       </c>
       <c r="E29">
-        <v>4420.94</v>
+        <v>4207.5</v>
       </c>
       <c r="F29">
-        <v>220.46</v>
+        <v>233.73</v>
       </c>
       <c r="G29">
-        <v>684.03</v>
+        <v>806.91</v>
       </c>
       <c r="H29">
-        <v>1908.74</v>
+        <v>1449.98</v>
       </c>
       <c r="I29">
-        <v>23.5</v>
+        <v>18.81</v>
       </c>
       <c r="J29">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1372,25 +1372,25 @@
         <v>16</v>
       </c>
       <c r="D30">
-        <v>41.413</v>
+        <v>37.959</v>
       </c>
       <c r="E30">
-        <v>5176.62</v>
+        <v>4744.86</v>
       </c>
       <c r="F30">
-        <v>377.68</v>
+        <v>410.62</v>
       </c>
       <c r="G30">
-        <v>1318.91</v>
+        <v>1466.37</v>
       </c>
       <c r="H30">
-        <v>3293.18</v>
+        <v>3719.17</v>
       </c>
       <c r="I30">
-        <v>19.27</v>
+        <v>16.32</v>
       </c>
       <c r="J30">
-        <v>0.6899999999999999</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1404,25 +1404,25 @@
         <v>32</v>
       </c>
       <c r="D31">
-        <v>37.396</v>
+        <v>28.537</v>
       </c>
       <c r="E31">
-        <v>4674.47</v>
+        <v>3567.17</v>
       </c>
       <c r="F31">
-        <v>826.97</v>
+        <v>1038.04</v>
       </c>
       <c r="G31">
-        <v>3751.94</v>
+        <v>4947.97</v>
       </c>
       <c r="H31">
-        <v>7700.48</v>
+        <v>7962.62</v>
       </c>
       <c r="I31">
-        <v>16.31</v>
+        <v>6.82</v>
       </c>
       <c r="J31">
-        <v>0.62</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1436,25 +1436,25 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>464.794</v>
+        <v>438.368</v>
       </c>
       <c r="E32">
-        <v>1815.6</v>
+        <v>1712.37</v>
       </c>
       <c r="F32">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="G32">
-        <v>1.43</v>
+        <v>0.84</v>
       </c>
       <c r="H32">
-        <v>52.99</v>
+        <v>55.55</v>
       </c>
       <c r="I32">
-        <v>38.19</v>
+        <v>39.36</v>
       </c>
       <c r="J32">
-        <v>12.26</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1468,25 +1468,25 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>573.619</v>
+        <v>526.394</v>
       </c>
       <c r="E33">
-        <v>2240.7</v>
+        <v>2056.22</v>
       </c>
       <c r="F33">
-        <v>3.23</v>
+        <v>3.48</v>
       </c>
       <c r="G33">
         <v>1.24</v>
       </c>
       <c r="H33">
-        <v>107.01</v>
+        <v>110.08</v>
       </c>
       <c r="I33">
-        <v>36.42</v>
+        <v>37.25</v>
       </c>
       <c r="J33">
-        <v>8.99</v>
+        <v>8.449999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1500,25 +1500,25 @@
         <v>4</v>
       </c>
       <c r="D34">
-        <v>891.646</v>
+        <v>847.677</v>
       </c>
       <c r="E34">
-        <v>3482.99</v>
+        <v>3311.24</v>
       </c>
       <c r="F34">
-        <v>4.28</v>
+        <v>4.42</v>
       </c>
       <c r="G34">
-        <v>0.83</v>
+        <v>1.05</v>
       </c>
       <c r="H34">
-        <v>150.53</v>
+        <v>134.14</v>
       </c>
       <c r="I34">
-        <v>27.71</v>
+        <v>26.9</v>
       </c>
       <c r="J34">
-        <v>4.59</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1532,25 +1532,25 @@
         <v>8</v>
       </c>
       <c r="D35">
-        <v>959.795</v>
+        <v>962.88</v>
       </c>
       <c r="E35">
-        <v>3749.2</v>
+        <v>3761.25</v>
       </c>
       <c r="F35">
-        <v>8.029999999999999</v>
+        <v>8.01</v>
       </c>
       <c r="G35">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="H35">
-        <v>214.02</v>
+        <v>222.21</v>
       </c>
       <c r="I35">
-        <v>17.17</v>
+        <v>17.46</v>
       </c>
       <c r="J35">
-        <v>3.77</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1564,25 +1564,25 @@
         <v>16</v>
       </c>
       <c r="D36">
-        <v>963.322</v>
+        <v>981.583</v>
       </c>
       <c r="E36">
-        <v>3762.98</v>
+        <v>3834.31</v>
       </c>
       <c r="F36">
-        <v>16</v>
+        <v>15.75</v>
       </c>
       <c r="G36">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="H36">
-        <v>257.02</v>
+        <v>329.73</v>
       </c>
       <c r="I36">
-        <v>13.65</v>
+        <v>12.89</v>
       </c>
       <c r="J36">
-        <v>2.61</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1596,25 +1596,25 @@
         <v>32</v>
       </c>
       <c r="D37">
-        <v>773.5</v>
+        <v>761.8390000000001</v>
       </c>
       <c r="E37">
-        <v>3021.48</v>
+        <v>2975.93</v>
       </c>
       <c r="F37">
-        <v>40.56</v>
+        <v>41.32</v>
       </c>
       <c r="G37">
-        <v>2.61</v>
+        <v>2.54</v>
       </c>
       <c r="H37">
-        <v>134.14</v>
+        <v>162.82</v>
       </c>
       <c r="I37">
-        <v>6.09</v>
+        <v>5.69</v>
       </c>
       <c r="J37">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1628,25 +1628,25 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>3.899</v>
+        <v>8.217000000000001</v>
       </c>
       <c r="E38">
-        <v>487.39</v>
+        <v>1027.08</v>
       </c>
       <c r="F38">
-        <v>73.72</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="G38">
-        <v>86.53</v>
+        <v>80.38</v>
       </c>
       <c r="H38">
-        <v>104.96</v>
+        <v>94.72</v>
       </c>
       <c r="I38">
-        <v>15.95</v>
+        <v>30.72</v>
       </c>
       <c r="J38">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1660,25 +1660,25 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>7.946</v>
+        <v>9.52</v>
       </c>
       <c r="E39">
-        <v>993.21</v>
+        <v>1190.01</v>
       </c>
       <c r="F39">
-        <v>100.94</v>
+        <v>108.14</v>
       </c>
       <c r="G39">
-        <v>115.2</v>
+        <v>132.1</v>
       </c>
       <c r="H39">
-        <v>162.82</v>
+        <v>166.91</v>
       </c>
       <c r="I39">
-        <v>28.26</v>
+        <v>36.8</v>
       </c>
       <c r="J39">
-        <v>0.24</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1692,25 +1692,25 @@
         <v>4</v>
       </c>
       <c r="D40">
-        <v>7.905</v>
+        <v>12.497</v>
       </c>
       <c r="E40">
-        <v>988.1799999999999</v>
+        <v>1562.17</v>
       </c>
       <c r="F40">
-        <v>174.82</v>
+        <v>170.79</v>
       </c>
       <c r="G40">
-        <v>211.97</v>
+        <v>197.63</v>
       </c>
       <c r="H40">
-        <v>280.58</v>
+        <v>272.38</v>
       </c>
       <c r="I40">
-        <v>28.79</v>
+        <v>45.19</v>
       </c>
       <c r="J40">
-        <v>0.07000000000000001</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1724,25 +1724,25 @@
         <v>8</v>
       </c>
       <c r="D41">
-        <v>5.837</v>
+        <v>15.868</v>
       </c>
       <c r="E41">
-        <v>729.67</v>
+        <v>1983.54</v>
       </c>
       <c r="F41">
-        <v>382.84</v>
+        <v>294.52</v>
       </c>
       <c r="G41">
-        <v>366.59</v>
+        <v>362.5</v>
       </c>
       <c r="H41">
-        <v>493.57</v>
+        <v>473.09</v>
       </c>
       <c r="I41">
-        <v>19.01</v>
+        <v>56.74</v>
       </c>
       <c r="J41">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1756,25 +1756,25 @@
         <v>16</v>
       </c>
       <c r="D42">
-        <v>5.033</v>
+        <v>17.246</v>
       </c>
       <c r="E42">
-        <v>629.0700000000001</v>
+        <v>2155.79</v>
       </c>
       <c r="F42">
-        <v>1948.74</v>
+        <v>767.83</v>
       </c>
       <c r="G42">
-        <v>954.37</v>
+        <v>970.75</v>
       </c>
       <c r="H42">
-        <v>61079.55</v>
+        <v>3227.65</v>
       </c>
       <c r="I42">
-        <v>19.01</v>
+        <v>81.92</v>
       </c>
       <c r="J42">
-        <v>0.05</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1788,22 +1788,22 @@
         <v>32</v>
       </c>
       <c r="D43">
-        <v>13.835</v>
+        <v>13.622</v>
       </c>
       <c r="E43">
-        <v>1729.36</v>
+        <v>1702.76</v>
       </c>
       <c r="F43">
-        <v>2068.33</v>
+        <v>2097.64</v>
       </c>
       <c r="G43">
-        <v>6848.51</v>
+        <v>6979.58</v>
       </c>
       <c r="H43">
         <v>12255.23</v>
       </c>
       <c r="I43">
-        <v>69.83</v>
+        <v>69.94</v>
       </c>
       <c r="J43">
         <v>0.1</v>
@@ -1820,25 +1820,25 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>65.79900000000001</v>
+        <v>73.389</v>
       </c>
       <c r="E44">
-        <v>257.03</v>
+        <v>286.67</v>
       </c>
       <c r="F44">
-        <v>5.32</v>
+        <v>5.1</v>
       </c>
       <c r="G44">
-        <v>6.43</v>
+        <v>6.05</v>
       </c>
       <c r="H44">
-        <v>7.26</v>
+        <v>6.94</v>
       </c>
       <c r="I44">
-        <v>18.86</v>
+        <v>19.8</v>
       </c>
       <c r="J44">
-        <v>1.61</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1852,25 +1852,25 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>82.035</v>
+        <v>89.20999999999999</v>
       </c>
       <c r="E45">
-        <v>320.45</v>
+        <v>348.48</v>
       </c>
       <c r="F45">
-        <v>8.710000000000001</v>
+        <v>8.33</v>
       </c>
       <c r="G45">
-        <v>10.3</v>
+        <v>9.92</v>
       </c>
       <c r="H45">
-        <v>16.06</v>
+        <v>16.32</v>
       </c>
       <c r="I45">
-        <v>25.2</v>
+        <v>25.56</v>
       </c>
       <c r="J45">
-        <v>0.97</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1884,25 +1884,25 @@
         <v>4</v>
       </c>
       <c r="D46">
-        <v>91.467</v>
+        <v>119.414</v>
       </c>
       <c r="E46">
-        <v>357.29</v>
+        <v>466.46</v>
       </c>
       <c r="F46">
-        <v>14.34</v>
+        <v>14.42</v>
       </c>
       <c r="G46">
-        <v>18.05</v>
+        <v>17.02</v>
       </c>
       <c r="H46">
-        <v>26.5</v>
+        <v>23.42</v>
       </c>
       <c r="I46">
-        <v>28.53</v>
+        <v>35.81</v>
       </c>
       <c r="J46">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1916,25 +1916,25 @@
         <v>8</v>
       </c>
       <c r="D47">
-        <v>114.649</v>
+        <v>129.822</v>
       </c>
       <c r="E47">
-        <v>447.85</v>
+        <v>507.12</v>
       </c>
       <c r="F47">
-        <v>30.4</v>
+        <v>24.79</v>
       </c>
       <c r="G47">
-        <v>30.08</v>
+        <v>30.34</v>
       </c>
       <c r="H47">
-        <v>40.19</v>
+        <v>41.73</v>
       </c>
       <c r="I47">
-        <v>32.84</v>
+        <v>39.59</v>
       </c>
       <c r="J47">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1948,25 +1948,25 @@
         <v>16</v>
       </c>
       <c r="D48">
-        <v>120.16</v>
+        <v>134.713</v>
       </c>
       <c r="E48">
-        <v>469.37</v>
+        <v>526.22</v>
       </c>
       <c r="F48">
-        <v>87.88</v>
+        <v>73.13</v>
       </c>
       <c r="G48">
-        <v>92.67</v>
+        <v>95.73999999999999</v>
       </c>
       <c r="H48">
-        <v>108.03</v>
+        <v>111.1</v>
       </c>
       <c r="I48">
-        <v>40.95</v>
+        <v>51.68</v>
       </c>
       <c r="J48">
-        <v>0.34</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1980,25 +1980,25 @@
         <v>32</v>
       </c>
       <c r="D49">
-        <v>130.199</v>
+        <v>184.021</v>
       </c>
       <c r="E49">
-        <v>508.59</v>
+        <v>718.83</v>
       </c>
       <c r="F49">
-        <v>208.12</v>
+        <v>166.24</v>
       </c>
       <c r="G49">
-        <v>309.25</v>
+        <v>362.5</v>
       </c>
       <c r="H49">
-        <v>518.14</v>
+        <v>501.76</v>
       </c>
       <c r="I49">
-        <v>39.12</v>
+        <v>71.97</v>
       </c>
       <c r="J49">
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>

--- a/cpu_affinity/fio_logs/rfuse_results.xlsx
+++ b/cpu_affinity/fio_logs/rfuse_results.xlsx
@@ -457,10 +457,10 @@
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
-    <col width="19" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
     <col width="10" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="19" customWidth="1" min="12" max="12"/>
+    <col width="19" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
     <col width="11" customWidth="1" min="13" max="13"/>
     <col width="16" customWidth="1" min="14" max="14"/>
     <col width="10" customWidth="1" min="15" max="15"/>
@@ -484,8 +484,8 @@
     <col width="10" customWidth="1" min="33" max="33"/>
     <col width="10" customWidth="1" min="34" max="34"/>
     <col width="10" customWidth="1" min="35" max="35"/>
-    <col width="11" customWidth="1" min="36" max="36"/>
-    <col width="11" customWidth="1" min="37" max="37"/>
+    <col width="10" customWidth="1" min="36" max="36"/>
+    <col width="10" customWidth="1" min="37" max="37"/>
     <col width="12" customWidth="1" min="38" max="38"/>
     <col width="10" customWidth="1" min="39" max="39"/>
     <col width="10" customWidth="1" min="40" max="40"/>
@@ -741,148 +741,148 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2728</v>
+        <v>2661</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5537</v>
+        <v>5300</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>11200</v>
+        <v>11000</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>20800</v>
+        <v>19700</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>33500</v>
+        <v>25800</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>24000</v>
+        <v>26600</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>10100</v>
+        <v>10200</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>26300</v>
+        <v>24700</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>50800</v>
+        <v>46900</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>95400</v>
+        <v>87700</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>230000</v>
+        <v>211000</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>300000</v>
+        <v>238000</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5595</v>
+        <v>5025</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9816</v>
+        <v>13800</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>12200</v>
+        <v>14400</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8572</v>
+        <v>18200</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>19100</v>
+        <v>16600</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>6606</v>
+        <v>6615</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>97000</v>
+        <v>163000</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>199000</v>
+        <v>173000</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>219000</v>
+        <v>211000</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>254000</v>
+        <v>239000</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>222000</v>
+        <v>202000</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>132000</v>
+        <v>121000</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>13100</v>
+        <v>11900</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>21200</v>
+        <v>14200</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>29500</v>
+        <v>17600</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>30500</v>
+        <v>19800</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>33500</v>
+        <v>19400</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>34300</v>
+        <v>18700</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>501000</v>
+        <v>423000</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>731000</v>
+        <v>468000</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>953000</v>
+        <v>568000</v>
       </c>
       <c r="AI3" s="4" t="n">
-        <v>997000</v>
+        <v>671000</v>
       </c>
       <c r="AJ3" s="4" t="n">
-        <v>1075000</v>
+        <v>550000</v>
       </c>
       <c r="AK3" s="4" t="n">
-        <v>1040000</v>
+        <v>557000</v>
       </c>
       <c r="AL3" s="4" t="n">
-        <v>4177</v>
+        <v>8454</v>
       </c>
       <c r="AM3" s="4" t="n">
-        <v>9314</v>
+        <v>9947</v>
       </c>
       <c r="AN3" s="4" t="n">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="AO3" s="4" t="n">
         <v>15800</v>
       </c>
       <c r="AP3" s="4" t="n">
-        <v>17000</v>
+        <v>17100</v>
       </c>
       <c r="AQ3" s="4" t="n">
-        <v>13000</v>
+        <v>14200</v>
       </c>
       <c r="AR3" s="4" t="n">
-        <v>79300</v>
+        <v>132000</v>
       </c>
       <c r="AS3" s="4" t="n">
-        <v>90600</v>
+        <v>178000</v>
       </c>
       <c r="AT3" s="4" t="n">
-        <v>117000</v>
+        <v>219000</v>
       </c>
       <c r="AU3" s="4" t="n">
-        <v>121000</v>
+        <v>297000</v>
       </c>
       <c r="AV3" s="4" t="n">
-        <v>129000</v>
+        <v>239000</v>
       </c>
       <c r="AW3" s="4" t="n">
-        <v>133000</v>
+        <v>185000</v>
       </c>
     </row>
     <row r="4">
@@ -892,148 +892,148 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1468</v>
+        <v>1443</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2728</v>
+        <v>2585</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4386</v>
+        <v>3387</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3275</v>
+        <v>3488</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>41.4</v>
+        <v>41.7</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>391</v>
+        <v>359</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>944</v>
+        <v>862</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1228</v>
+        <v>973</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>733</v>
+        <v>659</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1287</v>
+        <v>1808</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1599</v>
+        <v>1889</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1124</v>
+        <v>2385</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>2509</v>
+        <v>2176</v>
       </c>
       <c r="S4" s="4" t="n">
+        <v>867</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>666</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>708</v>
+      </c>
+      <c r="V4" s="4" t="n">
         <v>866</v>
       </c>
-      <c r="T4" s="4" t="n">
-        <v>401</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>815</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>896</v>
-      </c>
       <c r="W4" s="4" t="n">
-        <v>1041</v>
+        <v>980</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>910</v>
+        <v>826</v>
       </c>
       <c r="Y4" s="4" t="n">
+        <v>495</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>1561</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>1863</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>2307</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>2593</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>2545</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>2452</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>1735</v>
+      </c>
+      <c r="AG4" s="4" t="n">
+        <v>1916</v>
+      </c>
+      <c r="AH4" s="4" t="n">
+        <v>2328</v>
+      </c>
+      <c r="AI4" s="4" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AJ4" s="4" t="n">
+        <v>2254</v>
+      </c>
+      <c r="AK4" s="4" t="n">
+        <v>2283</v>
+      </c>
+      <c r="AL4" s="4" t="n">
+        <v>1108</v>
+      </c>
+      <c r="AM4" s="4" t="n">
+        <v>1304</v>
+      </c>
+      <c r="AN4" s="4" t="n">
+        <v>1663</v>
+      </c>
+      <c r="AO4" s="4" t="n">
+        <v>2072</v>
+      </c>
+      <c r="AP4" s="4" t="n">
+        <v>2235</v>
+      </c>
+      <c r="AQ4" s="4" t="n">
+        <v>1864</v>
+      </c>
+      <c r="AR4" s="4" t="n">
         <v>541</v>
       </c>
-      <c r="Z4" s="4" t="n">
-        <v>1718</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>2782</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>3869</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>4001</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>4387</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>4490</v>
-      </c>
-      <c r="AF4" s="4" t="n">
-        <v>2053</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>2995</v>
-      </c>
-      <c r="AH4" s="4" t="n">
-        <v>3905</v>
-      </c>
-      <c r="AI4" s="4" t="n">
-        <v>4085</v>
-      </c>
-      <c r="AJ4" s="4" t="n">
-        <v>4405</v>
-      </c>
-      <c r="AK4" s="4" t="n">
-        <v>4261</v>
-      </c>
-      <c r="AL4" s="4" t="n">
-        <v>548</v>
-      </c>
-      <c r="AM4" s="4" t="n">
-        <v>1221</v>
-      </c>
-      <c r="AN4" s="4" t="n">
-        <v>1675</v>
-      </c>
-      <c r="AO4" s="4" t="n">
-        <v>2070</v>
-      </c>
-      <c r="AP4" s="4" t="n">
-        <v>2229</v>
-      </c>
-      <c r="AQ4" s="4" t="n">
-        <v>1833</v>
-      </c>
-      <c r="AR4" s="4" t="n">
-        <v>325</v>
-      </c>
       <c r="AS4" s="4" t="n">
-        <v>371</v>
+        <v>728</v>
       </c>
       <c r="AT4" s="4" t="n">
-        <v>479</v>
+        <v>895</v>
       </c>
       <c r="AU4" s="4" t="n">
-        <v>496</v>
+        <v>1216</v>
       </c>
       <c r="AV4" s="4" t="n">
-        <v>530</v>
+        <v>981</v>
       </c>
       <c r="AW4" s="4" t="n">
-        <v>547</v>
+        <v>759</v>
       </c>
     </row>
     <row r="5">
@@ -1043,148 +1043,148 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>365.35</v>
+        <v>374.36</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>353.79</v>
+        <v>370.56</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>351.94</v>
+        <v>356.54</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>376.78</v>
+        <v>396.97</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>466.38</v>
+        <v>574.61</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1261.68</v>
+        <v>1053.87</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>98.02873</v>
+        <v>97.22609</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>73.21592999999999</v>
+        <v>79.97396000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>74.52193</v>
+        <v>81.96829</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>79.33963</v>
+        <v>88.02678999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>64.63398000000001</v>
+        <v>74.63249</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>100.49454</v>
+        <v>133.16882</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>55.34</v>
+        <v>56.94</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>83.33</v>
+        <v>88.27</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>149.98</v>
+        <v>150.74</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>269.25</v>
+        <v>283.27</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>662.4</v>
+        <v>730.74</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>3124.93</v>
+        <v>2993.42</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>5.94749</v>
+        <v>4.91</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>8.33</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.03</v>
+        <v>15.9</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>26.81</v>
+        <v>29.4</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>65.17</v>
+        <v>73.18000000000001</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>191.66</v>
+        <v>212.2</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>75.89</v>
+        <v>83.52</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>92.13</v>
+        <v>134.73</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>133.28</v>
+        <v>223.31</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>254.49</v>
+        <v>399.41</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>470.67</v>
+        <v>805.08</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>920.41</v>
+        <v>1694.88</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.88552</v>
+        <v>2.23712</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.5304</v>
+        <v>4.02151</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.94271</v>
+        <v>6.64128</v>
       </c>
       <c r="AI5" s="4" t="n">
-        <v>7.61767</v>
+        <v>11.19215</v>
       </c>
       <c r="AJ5" s="4" t="n">
-        <v>14.36775</v>
+        <v>28.37564</v>
       </c>
       <c r="AK5" s="4" t="n">
-        <v>30.16651</v>
+        <v>54.16353</v>
       </c>
       <c r="AL5" s="4" t="n">
-        <v>62.11</v>
+        <v>65.28</v>
       </c>
       <c r="AM5" s="4" t="n">
-        <v>94.36</v>
+        <v>99.79000000000001</v>
       </c>
       <c r="AN5" s="4" t="n">
-        <v>160.58</v>
+        <v>160.15</v>
       </c>
       <c r="AO5" s="4" t="n">
-        <v>293.11</v>
+        <v>292.16</v>
       </c>
       <c r="AP5" s="4" t="n">
-        <v>738.3200000000001</v>
+        <v>740.15</v>
       </c>
       <c r="AQ5" s="4" t="n">
-        <v>2049.38</v>
+        <v>2001.53</v>
       </c>
       <c r="AR5" s="4" t="n">
-        <v>4.46999</v>
+        <v>4.98</v>
       </c>
       <c r="AS5" s="4" t="n">
-        <v>8.34</v>
+        <v>7.95</v>
       </c>
       <c r="AT5" s="4" t="n">
-        <v>13.51</v>
+        <v>14.02</v>
       </c>
       <c r="AU5" s="4" t="n">
-        <v>26.78</v>
+        <v>24.51</v>
       </c>
       <c r="AV5" s="4" t="n">
-        <v>78.98999999999999</v>
+        <v>61.69</v>
       </c>
       <c r="AW5" s="4" t="n">
-        <v>199.01</v>
+        <v>165.12</v>
       </c>
     </row>
     <row r="6">
@@ -1194,136 +1194,136 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>660</v>
+        <v>685</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>676</v>
+        <v>693</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>717</v>
+        <v>775</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>930</v>
+        <v>1467</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>2540</v>
+        <v>3097</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>277</v>
+        <v>254.976</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>149</v>
+        <v>156.672</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>151</v>
+        <v>168.96</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>171.008</v>
+        <v>191.488</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>187.392</v>
+        <v>230.4</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>288.768</v>
+        <v>387.072</v>
       </c>
       <c r="N6" s="4" t="n">
         <v>74</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>979</v>
+        <v>1123</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>7570</v>
+        <v>7963</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>7.328</v>
+        <v>6.432</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>10.944</v>
+        <v>13</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>429</v>
+        <v>510</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>306</v>
+        <v>478</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>437</v>
+        <v>742</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>848</v>
+        <v>1418</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1663</v>
+        <v>3097</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>3949</v>
+        <v>7439</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>0.652</v>
+        <v>1.16</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>1.032</v>
+        <v>1.512</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.272</v>
+        <v>1.912</v>
       </c>
       <c r="AI6" s="4" t="n">
-        <v>2.672</v>
+        <v>2.544</v>
       </c>
       <c r="AJ6" s="4" t="n">
-        <v>2.64</v>
+        <v>2.736</v>
       </c>
       <c r="AK6" s="4" t="n">
-        <v>2.736</v>
+        <v>2.704</v>
       </c>
       <c r="AL6" s="4" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AM6" s="4" t="n">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="AN6" s="4" t="n">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="AO6" s="4" t="n">
         <v>355</v>
       </c>
       <c r="AP6" s="4" t="n">
-        <v>963</v>
+        <v>922</v>
       </c>
       <c r="AQ6" s="4" t="n">
-        <v>6652</v>
+        <v>6587</v>
       </c>
       <c r="AR6" s="4" t="n">
-        <v>4.96</v>
+        <v>5.984</v>
       </c>
       <c r="AS6" s="4" t="n">
-        <v>10.304</v>
+        <v>9.407999999999999</v>
       </c>
       <c r="AT6" s="4" t="n">
         <v>17</v>
@@ -1332,10 +1332,10 @@
         <v>31</v>
       </c>
       <c r="AV6" s="4" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AW6" s="4" t="n">
-        <v>314</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7">
@@ -1345,148 +1345,148 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>717</v>
+        <v>750</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>758</v>
+        <v>783</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>873</v>
+        <v>955</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>1123</v>
+        <v>1795</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>3064</v>
+        <v>3818</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>310</v>
+        <v>301.056</v>
       </c>
       <c r="I7" s="4" t="n">
+        <v>201.728</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>216.064</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>252.928</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>395.264</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>643.072</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>174</v>
+      </c>
+      <c r="O7" s="4" t="n">
         <v>190</v>
       </c>
-      <c r="J7" s="4" t="n">
-        <v>196</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>218.112</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>292.864</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>468.992</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>83</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>127</v>
-      </c>
       <c r="P7" s="4" t="n">
+        <v>260</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>498</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>2638</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>62129</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>7.456</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>141</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>734</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>433</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>570</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>922</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>1713</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>3720</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>8979</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>55.04</v>
+      </c>
+      <c r="AG7" s="4" t="n">
+        <v>128.512</v>
+      </c>
+      <c r="AH7" s="4" t="n">
+        <v>224.256</v>
+      </c>
+      <c r="AI7" s="4" t="n">
+        <v>387.072</v>
+      </c>
+      <c r="AJ7" s="4" t="n">
+        <v>978.944</v>
+      </c>
+      <c r="AK7" s="4" t="n">
+        <v>228.352</v>
+      </c>
+      <c r="AL7" s="4" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM7" s="4" t="n">
+        <v>155</v>
+      </c>
+      <c r="AN7" s="4" t="n">
         <v>258</v>
       </c>
-      <c r="Q7" s="4" t="n">
-        <v>429</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>2540</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>63701</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>8.384</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>12.608</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>44</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>123</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>594</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>367</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>416</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>586</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1221</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>2114</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>5997</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>49.92</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>97.792</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>138.24</v>
-      </c>
-      <c r="AI7" s="4" t="n">
-        <v>254.976</v>
-      </c>
-      <c r="AJ7" s="4" t="n">
-        <v>477.184</v>
-      </c>
-      <c r="AK7" s="4" t="n">
-        <v>183.296</v>
-      </c>
-      <c r="AL7" s="4" t="n">
-        <v>83</v>
-      </c>
-      <c r="AM7" s="4" t="n">
-        <v>157</v>
-      </c>
-      <c r="AN7" s="4" t="n">
-        <v>273</v>
-      </c>
       <c r="AO7" s="4" t="n">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="AP7" s="4" t="n">
-        <v>2606</v>
+        <v>2245</v>
       </c>
       <c r="AQ7" s="4" t="n">
-        <v>12518</v>
+        <v>11994</v>
       </c>
       <c r="AR7" s="4" t="n">
-        <v>5.344</v>
+        <v>6.688</v>
       </c>
       <c r="AS7" s="4" t="n">
-        <v>15.04</v>
+        <v>11.968</v>
       </c>
       <c r="AT7" s="4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU7" s="4" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AV7" s="4" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AW7" s="4" t="n">
-        <v>494</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8">
@@ -1496,148 +1496,148 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>24.53</v>
+        <v>24.57</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>24.37</v>
+        <v>24.29</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>27.6</v>
+        <v>25.34</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>26.66</v>
+        <v>25.03</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>17.46</v>
+        <v>16.59</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>17.25</v>
+        <v>16.94</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>19.17</v>
+        <v>18.06</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>19.78</v>
+        <v>17.29</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>20.14</v>
+        <v>17.64</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>5.29</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>4.56</v>
+        <v>3.78</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>16.2</v>
+        <v>15.41</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>27.97</v>
+        <v>41.71</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>37.16</v>
+        <v>45.04</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>28.25</v>
+        <v>61.81</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>82.14</v>
+        <v>76.94</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>32.5</v>
+        <v>33.69</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>31.03</v>
+        <v>40.29</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>59.31</v>
+        <v>57.9</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>70.16</v>
+        <v>74.14</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>81.56999999999999</v>
+        <v>82.92</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>91.8</v>
+        <v>91.98999999999999</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>60.81</v>
+        <v>61.02</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>49.04</v>
+        <v>49.05</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>42.77</v>
+        <v>38.72</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>42.02</v>
+        <v>37.56</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>33.47</v>
+        <v>24.44</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>18.88</v>
+        <v>13.67</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>10.74</v>
+        <v>5.63</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>38.89</v>
+        <v>42.56</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>39.66</v>
+        <v>37.4</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>39.45</v>
+        <v>34.75</v>
       </c>
       <c r="AI8" s="4" t="n">
-        <v>30.99</v>
+        <v>25.2</v>
       </c>
       <c r="AJ8" s="4" t="n">
-        <v>20.92</v>
+        <v>12.51</v>
       </c>
       <c r="AK8" s="4" t="n">
-        <v>8.65</v>
+        <v>5.7</v>
       </c>
       <c r="AL8" s="4" t="n">
-        <v>13.62</v>
+        <v>31.3</v>
       </c>
       <c r="AM8" s="4" t="n">
-        <v>30.47</v>
+        <v>34.42</v>
       </c>
       <c r="AN8" s="4" t="n">
-        <v>44.11</v>
+        <v>42.95</v>
       </c>
       <c r="AO8" s="4" t="n">
-        <v>53.68</v>
+        <v>57.91</v>
       </c>
       <c r="AP8" s="4" t="n">
-        <v>77.58</v>
+        <v>78.5</v>
       </c>
       <c r="AQ8" s="4" t="n">
-        <v>69.84999999999999</v>
+        <v>70.41</v>
       </c>
       <c r="AR8" s="4" t="n">
-        <v>15.4</v>
+        <v>33.92</v>
       </c>
       <c r="AS8" s="4" t="n">
-        <v>25.8</v>
+        <v>48.12</v>
       </c>
       <c r="AT8" s="4" t="n">
-        <v>32.36</v>
+        <v>64.27</v>
       </c>
       <c r="AU8" s="4" t="n">
-        <v>34.71</v>
+        <v>85.16</v>
       </c>
       <c r="AV8" s="4" t="n">
-        <v>45.19</v>
+        <v>90.45999999999999</v>
       </c>
       <c r="AW8" s="4" t="n">
-        <v>41.6</v>
+        <v>72.29000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1647,148 +1647,148 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="C9" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M9" s="4" t="n">
         <v>0.52</v>
       </c>
-      <c r="D9" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.64</v>
-      </c>
       <c r="N9" s="4" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>0.3</v>
+        <v>0.87</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>0.34</v>
+        <v>0.19</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>0.11</v>
+        <v>0.24</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>3.81</v>
+        <v>3.79</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>2.73</v>
+        <v>2.66</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>1.97</v>
+        <v>1.48</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>1.17</v>
+        <v>0.87</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="Z9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>1.32</v>
+        <v>0.5</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>0.89</v>
+        <v>1.03</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>0.9</v>
+        <v>0.64</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>0.55</v>
+        <v>0.37</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.39</v>
+        <v>0.17</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>12.45</v>
+        <v>5.66</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>10.59</v>
+        <v>8.07</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>9.74</v>
+        <v>9.17</v>
       </c>
       <c r="AI9" s="4" t="n">
-        <v>6.28</v>
+        <v>6.45</v>
       </c>
       <c r="AJ9" s="4" t="n">
-        <v>4.42</v>
+        <v>3.05</v>
       </c>
       <c r="AK9" s="4" t="n">
-        <v>1.64</v>
+        <v>1.34</v>
       </c>
       <c r="AL9" s="4" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AM9" s="4" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AN9" s="4" t="n">
-        <v>0.14</v>
+        <v>0.37</v>
       </c>
       <c r="AO9" s="4" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="AP9" s="4" t="n">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="AQ9" s="4" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR9" s="4" t="n">
-        <v>2.81</v>
+        <v>3.98</v>
       </c>
       <c r="AS9" s="4" t="n">
-        <v>1.43</v>
+        <v>2.75</v>
       </c>
       <c r="AT9" s="4" t="n">
-        <v>0.93</v>
+        <v>1.54</v>
       </c>
       <c r="AU9" s="4" t="n">
-        <v>0.53</v>
+        <v>1.1</v>
       </c>
       <c r="AV9" s="4" t="n">
-        <v>0.41</v>
+        <v>0.8</v>
       </c>
       <c r="AW9" s="4" t="n">
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
